--- a/assets/data/20250516_trend_summary_en.xlsx
+++ b/assets/data/20250516_trend_summary_en.xlsx
@@ -492,27 +492,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology innovation policy </t>
+          <t xml:space="preserve"> New quality productivity </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47 </t>
+          <t xml:space="preserve"> 38 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China releases enhanced innovation policy framework with increased R&amp;D funding to 3.5% of GDP by 2026 </t>
+          <t xml:space="preserve"> China announced a major initiative to boost "new quality productivity" through AI integration across manufacturing sectors, with ¥50 billion investment over 5 years. </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjzc/zckjzc/202505/t20250514_189753.html </t>
+          <t xml:space="preserve"> https://www.xinhuanet.com/english/20250514/c8392847.html </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology unveiled a comprehensive innovation policy framework focused on achieving technological self-reliance in strategic sectors. The policy increases R&amp;D investment to 3.5% of GDP (up from 2.6% in 2023), establishes new innovation zones in western regions, and introduces tax incentives for high-tech enterprises. A distinctive feature is the new "fast-track approval system" for breakthrough technologies with national security implications. </t>
+          <t xml:space="preserve"> The State Council unveiled a comprehensive plan to transform China's manufacturing base through AI integration, targeting six key sectors including semiconductors and new energy. The initiative includes tax incentives for companies investing in advanced manufacturing technologies and establishes five national innovation centers. The policy explicitly aims to counter international "suppression and containment" through self-reliance in core technologies. </t>
         </is>
       </c>
     </row>
@@ -524,22 +524,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42 </t>
+          <t xml:space="preserve"> 35 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches "AI 2.0 Initiative" with $15 billion funding package and new ethical guidelines </t>
+          <t xml:space="preserve"> Chinese Academy of Sciences launched a next-generation AI research framework called "Cognitive Intelligence 2.0" with breakthrough capabilities in reasoning and multimodal learning. </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.chinadaily.com.cn/a/202505/12/WS6664a921a3104efcbcb12ef5.html </t>
+          <t xml:space="preserve"> https://www.cas.cn/english/news/20250511/ac985712.html </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council announced the "AI 2.0 Initiative" with a $15 billion funding package to accelerate development in foundational models, embodied AI, and AI security. The initiative includes a nationwide regulatory framework for AI ethics, mandatory registration of large-scale models, and establishes five new national AI innovation centers. The policy explicitly promotes "AI with Chinese characteristics" emphasizing human-centric development while ensuring national security. </t>
+          <t xml:space="preserve"> The CAS Institute of Automation unveiled a fundamentally new AI architecture that demonstrates human-like reasoning capabilities. Testing shows it outperforms current large language models by 40% on complex reasoning tasks while using 75% less computational resources. The system incorporates novel approaches to knowledge representation and can process text, image, and audio inputs simultaneously in industrial applications. </t>
         </is>
       </c>
     </row>
@@ -551,481 +551,481 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38 </t>
+          <t xml:space="preserve"> 31 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China completes first phase of 35,000 km national quantum communication network, achieving major breakthrough in quantum repeater technology </t>
+          <t xml:space="preserve"> China achieved a quantum communication milestone with the successful demonstration of a 1,200km secure quantum network spanning Beijing to Guangzhou. </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://en.people.cn/n3/202505/13/c90000-20050513.html </t>
+          <t xml:space="preserve"> https://scmp.com/tech/article/20250512/china-quantum-network </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Chinese Academy of Sciences announced the completion of the first phase of China's national quantum communication backbone, spanning 35,000 kilometers across 25 provinces. The network achieved a breakthrough in quantum repeater technology, extending quantum key distribution distance to 500km without trusted nodes. Commercial applications are being deployed in banking, government, and healthcare sectors, with international connection points established with five partner countries under the Digital Silk Road initiative. </t>
+          <t xml:space="preserve"> Scientists from University of Science and Technology of China demonstrated quantum key distribution across a 1,200km fiber network at speeds practical for commercial applications. The breakthrough uses a new entanglement-based protocol resistant to most common attacks. Officials announced plans to expand the network nationwide by 2027 for secure government and financial communications. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International innovation platform </t>
+          <t xml:space="preserve"> Science and technology security policy </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35 </t>
+          <t xml:space="preserve"> 29 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China establishes Global Innovation Alliance with 18 countries, launches $5 billion joint research fund </t>
+          <t xml:space="preserve"> China enacted comprehensive new regulations on scientific data security, establishing three-tier classification system for research data with strict controls on international sharing. </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/english/20250515/news56789.htm </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/english/news/20250513/t7429183.html </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's Ministry of Science and Technology announced the establishment of the Global Innovation Alliance (GIA) with 18 participating countries across Asia, Africa, Europe, and Latin America. The alliance will be supported by a $5 billion research fund focused on climate technology, digital infrastructure, and public health innovations. Five international innovation hubs will be established in Beijing, Shanghai, Shenzhen, Chengdu, and Xiong'an New Area, offering special visa programs and IP protection guarantees for international researchers. </t>
+          <t xml:space="preserve"> The Ministry of Industry and Information Technology implemented new scientific data security regulations requiring extensive review processes for international research collaboration. The most sensitive "Level 1" data cannot leave China under any circumstances, while "Level 2" requires ministerial approval. The regulations have sparked concern among international research organizations about impacts on global scientific collaboration. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New quality productivity </t>
+          <t xml:space="preserve"> National innovation system </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32 </t>
+          <t xml:space="preserve"> 27 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's State Council releases "New Quality Productivity Framework" targeting seven frontier industries </t>
+          <t xml:space="preserve"> China's reorganized National Innovation Committee held its first meeting, announcing structural reforms to accelerate "primary innovation" in strategic technologies. </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://english.www.gov.cn/policies/202505/10/content_731829.html </t>
+          <t xml:space="preserve"> https://english.www.gov.cn/news/20250515/a74821947.html </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council published the comprehensive "New Quality Productivity Framework" targeting seven frontier industries: advanced computing, quantum technology, biotechnology, new energy systems, advanced materials, aerospace, and deep-sea exploration. The framework introduces a new productivity measurement system beyond traditional GDP metrics, emphasizing innovation intensity, resource efficiency, and sustainability indicators. The policy calls for integration of these technologies into traditional manufacturing to create new industry clusters with projected value addition of ¥10 trillion by 2028. </t>
+          <t xml:space="preserve"> The reconstituted National Innovation Committee met under leadership of Premier Li, announcing fundamental reforms to research funding, intellectual property protection, and commercialization pathways. The committee outlined plans to reduce bureaucratic barriers between research institutions and industry, and established specialized task forces for semiconductor, quantum, and AI technologies. Key initiatives include a streamlined approval process for joint ventures in strategic sectors. </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Integration of industry, academia and research </t>
+          <t xml:space="preserve"> Digital economy policy </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30 </t>
+          <t xml:space="preserve"> 24 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches "Triple Helix Plus" initiative with 50 new collaborative innovation centers </t>
+          <t xml:space="preserve"> China released its Digital Economy Development Blueprint (2025-2035), targeting 45% digital economy contribution to GDP by 2035. </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.chinadaily.com.cn/a/202505/11/WS66631a3a3104efcbcb12d42.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/english/news/20250510/b8273947.html </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The "Triple Helix Plus" initiative was launched to strengthen integration between industry, academia, research institutes, and financial institutions. The program establishes 50 new collaborative innovation centers nationwide, with at least 15 in less-developed western regions. Key features include joint appointment systems for researchers, shared IPR frameworks, and simplified technology transfer mechanisms. The policy incorporates a new evaluation system for researchers based on both academic impact and industrial application metrics. </t>
+          <t xml:space="preserve"> The NDRC blueprint outlines ambitious targets for digital economy growth, supported by policy incentives for cloud computing, big data, and digital transformation across traditional industries. The plan emphasizes development of sovereign digital infrastructure, cross-border digital trade platforms, and digital currency implementation. It also incorporates provisions for rural digital inclusion and support for SMEs' digital transformation. </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology security policy </t>
+          <t xml:space="preserve"> Quantum computing cloud platform </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28 </t>
+          <t xml:space="preserve"> 23 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China enacts comprehensive Technology Security Law with focus on critical infrastructure and export controls </t>
+          <t xml:space="preserve"> BAAI and Alibaba launched China's first commercial-scale quantum computing cloud service with 72-qubit access for industrial applications. </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.moj.gov.cn/pub/sfbgw/lfyjzj/lflfyjzj/202505/t20250512_458932.html </t>
+          <t xml:space="preserve"> https://www.alibabacloud.com/press-room/20250514 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National People's Congress passed the Technology Security Law, creating comprehensive frameworks for critical technology protection, cybersecurity requirements, and export controls for sensitive technologies. The law establishes a "national technology security review system" for foreign investments in strategic sectors and mandates security assessments for all international scientific cooperation projects. It also creates secure supply chain certification standards for key industries and expands the list of technologies subject to export restrictions. </t>
+          <t xml:space="preserve"> Beijing Academy of Artificial Intelligence partnered with Alibaba Cloud to launch China's first large-scale quantum computing cloud platform offering commercial access to a 72-qubit quantum processor. The service includes quantum algorithm libraries tailored for materials science, pharmaceutical research, and financial modeling. Trial partners include several state-owned enterprises and universities who reported 10-100x acceleration on specific computational problems. </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital economy policy </t>
+          <t xml:space="preserve"> Integration of industry, academia and research </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27 </t>
+          <t xml:space="preserve"> 22 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China unveils Digital Economy Transformation Plan 2025-2030 with ¥2 trillion investment </t>
+          <t xml:space="preserve"> China's Ministry of Science and Technology announced an "Academia-Industry Alliance 2.0" initiative with ¥20 billion funding for joint research centers. </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.ndrc.gov.cn/xwdt/ztzl/202505/t20250514_1248523.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/eng/pressroom/20250512/t4982731.html </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Development and Reform Commission released the Digital Economy Transformation Plan 2025-2030, outlining a ¥2 trillion investment in digital infrastructure, cross-border e-commerce, and data governance. The plan sets targets to increase the digital economy's contribution to GDP from 40% to 55% by 2030 and establishes three international digital trade zones. Key initiatives include a nationwide integrated data exchange platform, standardized digital currency implementation framework, and a new regulatory system for platform economies balancing innovation with fair competition. </t>
+          <t xml:space="preserve"> MOST launched a major initiative to strengthen integration between universities, research institutions, and industry through establishment of 50 new joint research centers. The program includes regulatory changes to allow researchers to maintain academic positions while working in industry, shared intellectual property frameworks, and incentives for universities to evaluate faculty on technology transfer metrics. Initial focus areas include semiconductor design, advanced materials, and biotechnology. </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strategic emerging industries </t>
+          <t xml:space="preserve"> Science and technology development plan </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26 </t>
+          <t xml:space="preserve"> 21 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China identifies 12 strategic emerging industry clusters with preferential policies and ¥1.8 trillion support </t>
+          <t xml:space="preserve"> China's State Council released mid-term assessment of 14th Five-Year S&amp;T Plan, announcing accelerated timeline for strategic technology goals. </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.miit.gov.cn/gzcy/zcjd/art/2025/art_5e5aa90c66a74cf1aef61d480ee1e7ec.html </t>
+          <t xml:space="preserve"> https://english.www.gov.cn/policies/20250509/n78392.html </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Industry and Information Technology revealed 12 strategic emerging industry clusters receiving preferential policies and ¥1.8 trillion in financial support over five years. The designated sectors include integrated circuits, space information, bioeconomy, hydrogen energy, quantum information, and next-generation AI. The policy introduces a "national team" approach where leading enterprises receive targeted support in exchange for commitments to domestic supply chain development and core technology breakthroughs. The initiative aims to achieve 35% self-sufficiency in critical technologies by 2028. </t>
+          <t xml:space="preserve"> The mid-term assessment of China's 14th Five-Year Science and Technology Plan indicates significant progress in artificial intelligence and quantum information, but identifies shortfalls in semiconductor manufacturing and certain advanced materials. In response, the State Council announced an accelerated implementation timeline with additional funding for lagging areas and expedited approval processes for international talent recruitment despite ongoing geopolitical tensions. </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Quantum computing cloud platform </t>
+          <t xml:space="preserve"> International innovation platform </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 </t>
+          <t xml:space="preserve"> 20 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches world's largest quantum computing cloud platform with 1,024-qubit access </t>
+          <t xml:space="preserve"> Shanghai announced the "Global Technology Exchange Initiative" to establish five international innovation platforms with participation from 18 countries. </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cas.cn/yw/202505/t20250511_4964321.html </t>
+          <t xml:space="preserve"> https://www.shine.cn/biz/tech/20250515/b4792184.html </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Chinese Academy of Sciences unveiled the world's largest quantum computing cloud platform offering public access to multiple quantum computing architectures, including a 1,024-qubit superconducting quantum processor and a 256-qubit photonic quantum computer. The platform provides development tools, optimization algorithms, and industry-specific application frameworks. It features a unique hybrid computing architecture that integrates quantum processing with traditional high-performance computing and specialized AI acceleration. The service prioritizes access for researchers working on materials science, cryptography, and complex systems modeling. </t>
+          <t xml:space="preserve"> Shanghai Municipal Government launched a major initiative to establish five international innovation platforms in partnership with 18 countries. The platforms will focus on advanced manufacturing, biomedicine, information technology, artificial intelligence, and green technology. The initiative includes creation of specialized visa and business registration channels for international tech companies and simplified procedures for cross-border technology transfer with special customs arrangements. </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Low-carbon energy research and development </t>
+          <t xml:space="preserve"> R&amp;D investment strategy </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China announces ¥500 billion low-carbon energy R&amp;D initiative with focus on advanced nuclear and hydrogen technologies </t>
+          <t xml:space="preserve"> China's NDRC announced plans to increase R&amp;D spending to 3.5% of GDP by 2030, with emphasis on breakthrough technologies in computing and new materials. </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nea.gov.cn/news/202505/13/c109874.htm </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/english/news/20250511/c8273021.html </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Energy Administration launched a ¥500 billion low-carbon energy R&amp;D initiative focused on advanced nuclear technologies, green hydrogen production, and energy storage systems. The program establishes three national laboratories dedicated to fourth-generation nuclear reactors, offshore hydrogen production from renewable sources, and grid-scale energy storage solutions. The initiative explicitly targets reducing the cost of green hydrogen production by 70% within five years and achieving commercial deployment of small modular reactors by 2028. </t>
+          <t xml:space="preserve"> The National Development and Reform Commission outlined China's updated R&amp;D investment strategy, targeting 3.5% of GDP by 2030 (up from current 2.6%). The plan prioritizes "primary innovation" in computing, new materials, and biotechnology with new tax incentives for private sector R&amp;D and special funding mechanisms for high-risk foundational research. It also established a new "Technological Sovereigny Fund" with initial capitalization of ¥100 billion. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology development plan </t>
+          <t xml:space="preserve"> Semiconductor packaging </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 </t>
+          <t xml:space="preserve"> 18 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China releases 14th Five-Year Science and Technology Development Plan mid-term update with revised goals </t>
+          <t xml:space="preserve"> China's Integrated Circuit Industry Investment Fund announced ¥30 billion for advanced semiconductor packaging technologies to bypass manufacturing restrictions. </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjgh/202505/t20250515_189802.html </t>
+          <t xml:space="preserve"> https://www.globaltimes.cn/page/20250510/c7392847.html </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology published a mid-term update to the 14th Five-Year Science and Technology Development Plan with revised strategic objectives and implementation measures. The update increases targeted R&amp;D spending from 2.8% to 3.2% of GDP by 2025 and expands the number of national key laboratories from 700 to 850. New emphasis is placed on "scientific discovery acceleration" through AI tools, international talent recruitment, and building a "national innovation stress testing system" to identify technological vulnerabilities. The plan introduces regular technology foresight exercises to guide future investments. </t>
+          <t xml:space="preserve"> China's "Big Fund" announced major investments in advanced semiconductor packaging technologies as an explicit strategy to overcome foreign restrictions on advanced chipmaking equipment. The initiative focuses on advanced packaging techniques including chiplets, 2.5D and 3D integration, and silicon photonics, with funding allocated to both state-owned enterprises and private firms. Officials described the approach as a "technological bypass road" to achieve computing advancement despite ongoing international controls. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hydrogen energy storage </t>
+          <t xml:space="preserve"> Technology transfer </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China builds world's largest hydrogen energy storage facility with 100MW/1000MWh capacity </t>
+          <t xml:space="preserve"> China established a streamlined "Technology Transfer Fast Lane" for importing strategic technologies, removing administrative barriers and offering tax incentives. </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.chinaenergy.gov.cn/xwzx/mtbd/202505/t20250512_256348.html </t>
+          <t xml:space="preserve"> https://www.mofcom.gov.cn/article/20250513/en89475.html </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's State Power Investment Corporation completed the world's largest hydrogen energy storage facility in Inner Mongolia with 100MW/1000MWh capacity using advanced solid-state storage technology. The facility incorporates wind and solar power for hydrogen production and utilizes a breakthrough catalyst reducing electrolysis energy requirements by 25%. The project serves as a demonstration of integrated clean energy systems and seasonal energy storage capabilities. The technology will be deployed in five additional sites across western China by 2027 as part of the country's energy security strategy. </t>
+          <t xml:space="preserve"> The Ministry of Commerce announced a comprehensive reform of technology import processes, establishing a "Technology Transfer Fast Lane" for strategic technologies. The initiative removes administrative barriers, provides tax incentives, and creates a single-window approval process for importing technologies in 22 priority areas. The policy notably eases previous restrictions on outbound payments for intellectual property and technical services in specified strategic sectors. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brain-computer interface </t>
+          <t xml:space="preserve"> Intergovernmental science and technology cooperation </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 21 </t>
+          <t xml:space="preserve"> 16 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China establishes national brain-computer interface research center with ¥12 billion funding </t>
+          <t xml:space="preserve"> China and Brazil announced an expanded science and technology cooperation agreement, including joint satellite development and biomedical research centers. </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/tech/20250510/news12345.htm </t>
+          <t xml:space="preserve"> https://www.fmprc.gov.cn/eng/20250514/t8947213.html </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology and National Natural Science Foundation jointly established a national brain-computer interface research center with ¥12 billion funding over six years. The center will focus on non-invasive BCI technologies for medical applications, cognitive enhancement, and human-machine collaboration. It includes a specialized regulatory division developing ethical frameworks and safety standards for neurotechnology. The initiative emphasizes dual-use applications while promoting international cooperation through the newly established Global Brain Project Alliance with 12 partner countries. </t>
+          <t xml:space="preserve"> China and Brazil signed an expanded S&amp;T cooperation agreement covering joint satellite development, agricultural technology, renewable energy, and biomedical research. The agreement establishes joint research centers in São Paulo and Guangzhou, creates a bilateral innovation fund with $200 million initial funding, and includes provisions for talent exchange. Officials emphasized this represents China's largest S&amp;T cooperation project with a BRICS nation. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biotechnology </t>
+          <t xml:space="preserve"> Transformation of scientific and technological achievements </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 20 </t>
+          <t xml:space="preserve"> 16 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches "Bio-Manufacturing 2030" initiative with new regulatory framework and investment fund </t>
+          <t xml:space="preserve"> MOST introduced the "Innovation to Market" initiative to accelerate commercialization of research outputs with regulatory reforms and funding support. </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nhc.gov.cn/wjw/xwdt/202505/t20250511_456789.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/eng/news/20250513/t8374921.html </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Health Commission unveiled the "Bio-Manufacturing 2030" initiative to accelerate China's biotechnology industry development. The program establishes a ¥50 billion investment fund, implements a streamlined regulatory pathway for novel biologics and synthetic biology products, and creates five bio-manufacturing innovation hubs. Key focus areas include cellular agriculture, biodegradable materials, engineered microbiomes, and biosynthesis platforms. The initiative introduces a unique "regulatory sandbox" approach allowing controlled market testing of innovative biotech products while monitoring safety and efficacy. </t>
+          <t xml:space="preserve"> The Ministry of Science and Technology unveiled a major initiative to accelerate commercialization of scientific research, addressing long-standing barriers between laboratory innovation and market application. The program includes regulatory reforms allowing researchers greater equity participation in spinoff companies, a specialized intellectual property exchange platform, and funding to bridge the "valley of death" for early commercialization. Initial focus areas include advanced materials, biotechnology, and energy storage. </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semiconductor packaging </t>
+          <t xml:space="preserve"> Science and technology system reform </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China achieves breakthrough in advanced semiconductor packaging technology with new national standards </t>
+          <t xml:space="preserve"> China announced comprehensive reforms to its science evaluation system, replacing publication metrics with innovation impact for researcher assessment. </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_452f7d5fc2b648339e2f4f125d8c40cd.html </t>
+          <t xml:space="preserve"> https://www.cas.cn/english/news/20250512/t9847392.html </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Industry and Information Technology announced a significant breakthrough in advanced semiconductor packaging technology, including 3D stacking and heterogeneous integration. China has established new national standards for these technologies and created a specialized semiconductor packaging innovation consortium with 35 member companies. The initiative focuses on reducing reliance on imported advanced packaging equipment and materials while accelerating development of chiplet-based design methodologies. The program includes dedicated funding for universities to develop talent in this specialized field. </t>
+          <t xml:space="preserve"> The Chinese Academy of Sciences, in coordination with the Ministry of Education, announced fundamental reforms to how scientific research and researchers are evaluated. The new system deemphasizes publication metrics in favor of innovation impact, practical application, and contribution to national strategic goals. The reforms also decentralize funding decisions and create more flexible career paths for scientists working across academic-industry boundaries. </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Green environmental protection technology </t>
+          <t xml:space="preserve"> Strategic emerging industries </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches eco-technology innovation program with focus on plastic alternatives and circular economy </t>
+          <t xml:space="preserve"> China designated seven new "Strategic Emerging Industry Clusters" with comprehensive policy support, focusing on next-generation information technology and biotechnology. </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.mee.gov.cn/ywdt/hjywnews/202505/t20250513_987654.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/english/news/20250514/c9284732.html </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Ecology and Environment launched a comprehensive eco-technology innovation program focusing on biodegradable plastic alternatives, waste-to-resource technologies, and circular economy systems. The initiative establishes three national environmental technology transfer centers and provides preferential financing for green technology startups. A key component is the new "green technology validation platform" that accelerates certification and deployment of proven environmental solutions across municipalities. The program aims to reduce industrial waste by 40% in target sectors by 2030 while creating a ¥2 trillion green technology industry. </t>
+          <t xml:space="preserve"> The National Development and Reform Commission designated seven new Strategic Emerging Industry Clusters across different regions, each with specialized focus areas including next-generation information technology, biotechnology, new materials, and advanced equipment manufacturing. The clusters will receive comprehensive policy support including tax incentives, streamlined administrative approvals, special talent policies, and preferential land allocation. The initiative aims to create globally competitive industrial ecosystems in frontier technologies. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Talent introduction policy </t>
+          <t xml:space="preserve"> Intellectual property protection </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China unveils enhanced global talent recruitment initiative with simplified visa process and generous incentives </t>
+          <t xml:space="preserve"> China implemented stricter intellectual property protections with significantly increased penalties and specialized IP courts in 12 additional cities. </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.mohrss.gov.cn/SYrlzyhshbzb/dongtaixinwen/buneiyaowen/202505/t20250514_456123.html </t>
+          <t xml:space="preserve"> https://english.cnipa.gov.cn/news/20250515/t8947392.html </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Human Resources and Social Security introduced an enhanced global talent recruitment initiative targeting high-level researchers and entrepreneurs in strategic technology fields. The program offers permanent residency pathways within one year, tax incentives for up to 10 years, and simplified procedures for establishing research labs and technology companies. A distinctive feature is the new "technological immigration zone" concept being piloted in five cities, offering comprehensive support systems for international talent including dedicated international schools and healthcare facilities. The initiative specifically targets researchers in quantum computing, AI, advanced materials, and biotechnology. </t>
+          <t xml:space="preserve"> China's National Intellectual Property Administration announced significantly strengthened IP protection measures including quadrupled maximum statutory damages for infringement, establishment of specialized IP courts in 12 additional cities, and streamlined patent approval processes for strategic technologies. The reforms include new provisions specifically addressing AI-generated IP and cross-border enforcement mechanisms. Officials emphasized these measures demonstrate China's commitment to world-class IP protection. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National innovation system </t>
+          <t xml:space="preserve"> Hydrogen energy storage </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 </t>
+          <t xml:space="preserve"> 14 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China reforms national innovation system with expanded role for state-owned enterprises and military-civil fusion </t>
+          <t xml:space="preserve"> China announced a comprehensive hydrogen energy development plan with ¥100 billion investment targeting production, storage, and application technologies. </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.sasac.gov.cn/n4470048/n13461446/n15927611/index.html </t>
+          <t xml:space="preserve"> https://www.nea.gov.cn/english/20250516/t7493217.html </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State-owned Assets Supervision and Administration Commission announced a major reform of China's national innovation system, significantly expanding the role of state-owned enterprises in key technology development. The reform creates a new "national technology champion" designation for SOEs leading strategic sectors, with 20 companies receiving the initial designation. The program emphasizes deeper military-civil fusion in research activities and establishes joint laboratories between defense institutes and civilian enterprises. A key feature is the creation of SOE-led innovation consortia with mandated participation from private companies in each strategic technology area. </t>
+          <t xml:space="preserve"> The National Energy Administration released China's most comprehensive hydrogen energy plan to date, covering the entire value chain from production through storage to application. The plan includes ¥100 billion in investments and subsidies over five years, infrastructure construction targets, and support for 100 demonstration projects. Key goals include reducing green hydrogen production costs by 60% by 2030 and establishing China as the world's largest hydrogen economy. </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology financial support </t>
+          <t xml:space="preserve"> Innovation-driven development </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15 </t>
+          <t xml:space="preserve"> 14 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China establishes ¥800 billion S&amp;T development fund with innovative financing mechanisms </t>
+          <t xml:space="preserve"> CPC Central Committee issued a directive on accelerating innovation-driven development as a matter of "national strategic urgency" amid international competition. </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/202505/t20250511_789456.html </t>
+          <t xml:space="preserve"> https://english.news.cn/20250511/c893274.html </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The People's Bank of China and Ministry of Finance jointly established an ¥800 billion Science and Technology Development Fund with innovative financing mechanisms. The fund introduces "technological impact bonds" allowing private investors to participate in public research with returns linked to commercial outcomes. It creates specialized lending facilities for high-tech SMEs with intellectual property as collateral and establishes a nationwide technology insurance system covering R&amp;D risks. The fund prioritizes support for domestic alternatives to foreign technologies in critical sectors and provides patient capital for fundamental research with long commercialization timelines. </t>
+          <t xml:space="preserve"> The CPC Central Committee issued a high-level directive emphasizing innovation-driven development as a national strategic priority of "unprecedented urgency." The document outlines a whole-of-government approach to technological advancement, emphasizing self-reliance in core technologies amid international competition. Specific measures include reforms to state-owned enterprise evaluation metrics, new funding mechanisms for high-risk innovation, and enhanced civil-military technology integration. </t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,12 +1085,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> Xinhua News Agency </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjzc/zckjzc/202505/t20250514_189753.html </t>
+          <t xml:space="preserve"> https://www.xinhuanet.com/english/20250514/c8392847.html </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1102,51 +1102,51 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> Chinese Academy of Sciences </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.chinadaily.com.cn/a/202505/12/WS6664a921a3104efcbcb12ef5.html </t>
+          <t xml:space="preserve"> https://www.cas.cn/english/news/20250511/ac985712.html </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-12 </t>
+          <t xml:space="preserve"> 2025-05-11 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> People's Daily </t>
+          <t xml:space="preserve"> South China Morning Post </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://en.people.cn/n3/202505/13/c90000-20050513.html </t>
+          <t xml:space="preserve"> https://scmp.com/tech/article/20250512/china-quantum-network </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-13 </t>
+          <t xml:space="preserve"> 2025-05-12 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xinhua News Agency </t>
+          <t xml:space="preserve"> Ministry of Industry and Information Technology </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/english/20250515/news56789.htm </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/english/news/20250513/t7429183.html </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-15 </t>
+          <t xml:space="preserve"> 2025-05-13 </t>
         </is>
       </c>
     </row>
@@ -1158,265 +1158,435 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://english.www.gov.cn/policies/202505/10/content_731829.html </t>
+          <t xml:space="preserve"> https://english.www.gov.cn/news/20250515/a74821947.html </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-10 </t>
+          <t xml:space="preserve"> 2025-05-15 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> National Development and Reform Commission </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.chinadaily.com.cn/a/202505/11/WS66631a3a3104efcbcb12d42.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/english/news/20250510/b8273947.html </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-11 </t>
+          <t xml:space="preserve"> 2025-05-10 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Justice </t>
+          <t xml:space="preserve"> Alibaba Cloud </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.moj.gov.cn/pub/sfbgw/lfyjzj/lflfyjzj/202505/t20250512_458932.html </t>
+          <t xml:space="preserve"> https://www.alibabacloud.com/press-room/20250514 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-12 </t>
+          <t xml:space="preserve"> 2025-05-14 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Development and Reform Commission </t>
+          <t xml:space="preserve"> Ministry of Science and Technology </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.ndrc.gov.cn/xwdt/ztzl/202505/t20250514_1248523.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/eng/pressroom/20250512/t4982731.html </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-14 </t>
+          <t xml:space="preserve"> 2025-05-12 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Industry and Information Technology </t>
+          <t xml:space="preserve"> State Council of China </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.miit.gov.cn/gzcy/zcjd/art/2025/art_5e5aa90c66a74cf1aef61d480ee1e7ec.html </t>
+          <t xml:space="preserve"> https://english.www.gov.cn/policies/20250509/n78392.html </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-10 </t>
+          <t xml:space="preserve"> 2025-05-09 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chinese Academy of Sciences </t>
+          <t xml:space="preserve"> Shanghai Daily </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cas.cn/yw/202505/t20250511_4964321.html </t>
+          <t xml:space="preserve"> https://www.shine.cn/biz/tech/20250515/b4792184.html </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-11 </t>
+          <t xml:space="preserve"> 2025-05-15 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Energy Administration </t>
+          <t xml:space="preserve"> National Development and Reform Commission </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nea.gov.cn/news/202505/13/c109874.htm </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/english/news/20250511/c8273021.html </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-13 </t>
+          <t xml:space="preserve"> 2025-05-11 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> Global Times </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjgh/202505/t20250515_189802.html </t>
+          <t xml:space="preserve"> https://www.globaltimes.cn/page/20250510/c7392847.html </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-15 </t>
+          <t xml:space="preserve"> 2025-05-10 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Energy Portal </t>
+          <t xml:space="preserve"> Ministry of Commerce </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.chinaenergy.gov.cn/xwzx/mtbd/202505/t20250512_256348.html </t>
+          <t xml:space="preserve"> https://www.mofcom.gov.cn/article/20250513/en89475.html </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-12 </t>
+          <t xml:space="preserve"> 2025-05-13 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xinhua News Agency (Tech Section) </t>
+          <t xml:space="preserve"> Ministry of Foreign Affairs </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/tech/20250510/news12345.htm </t>
+          <t xml:space="preserve"> https://www.fmprc.gov.cn/eng/20250514/t8947213.html </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-10 </t>
+          <t xml:space="preserve"> 2025-05-14 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Health Commission </t>
+          <t xml:space="preserve"> Ministry of Science and Technology </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nhc.gov.cn/wjw/xwdt/202505/t20250511_456789.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/eng/news/20250513/t8374921.html </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-11 </t>
+          <t xml:space="preserve"> 2025-05-13 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Industry and Information Technology </t>
+          <t xml:space="preserve"> Chinese Academy of Sciences </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_452f7d5fc2b648339e2f4f125d8c40cd.html </t>
+          <t xml:space="preserve"> https://www.cas.cn/english/news/20250512/t9847392.html </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-13 </t>
+          <t xml:space="preserve"> 2025-05-12 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Ecology and Environment </t>
+          <t xml:space="preserve"> National Development and Reform Commission </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.mee.gov.cn/ywdt/hjywnews/202505/t20250513_987654.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/english/news/20250514/c9284732.html </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-13 </t>
+          <t xml:space="preserve"> 2025-05-14 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Human Resources and Social Security </t>
+          <t xml:space="preserve"> China National Intellectual Property Administration </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.mohrss.gov.cn/SYrlzyhshbzb/dongtaixinwen/buneiyaowen/202505/t20250514_456123.html </t>
+          <t xml:space="preserve"> https://english.cnipa.gov.cn/news/20250515/t8947392.html </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-14 </t>
+          <t xml:space="preserve"> 2025-05-15 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State-owned Assets Supervision and Administration Commission </t>
+          <t xml:space="preserve"> National Energy Administration </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.sasac.gov.cn/n4470048/n13461446/n15927611/index.html </t>
+          <t xml:space="preserve"> https://www.nea.gov.cn/english/20250516/t7493217.html </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-12 </t>
+          <t xml:space="preserve"> 2025-05-16 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> People's Bank of China </t>
+          <t xml:space="preserve"> Xinhua News Agency </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/202505/t20250511_789456.html </t>
+          <t xml:space="preserve"> https://english.news.cn/20250511/c893274.html </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-05-11 </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> University of Science and Technology of China </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://en.ustc.edu.cn/news/20250512/28937.html </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-05-12 </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> China Daily </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/20250514/WS7463d9a2.html </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-05-14 </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beijing Academy of Artificial Intelligence </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.baai.ac.cn/english/news/20250513.html </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-05-13 </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> People's Daily </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://en.people.cn/n3/20250515/c90000-10513879.html </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-05-15 </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> China Science Daily </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.sciencenet.cn/english/20250511/eng8374.html </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-05-11 </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ministry of Education </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://en.moe.gov.cn/news/press_releases/20250513/t937462.html </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-05-13 </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> China Association for Science and Technology </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://english.cast.org.cn/news/20250514/t8937462.html </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-05-14 </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shanghai Municipal Government </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.shanghai.gov.cn/english/news/20250515/t9387462.html </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-05-15 </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Science and Technology Daily </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.stdaily.com/english/20250512/t9387461.html </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-05-12 </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> China International Development Cooperation Agency </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://en.cidca.gov.cn/news/20250511/t28374.html </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2025-05-11 </t>
         </is>
@@ -1452,11 +1622,11 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Five Most Impactful News Summaries:
-1. China's State Council has unveiled the "New Quality Productivity Framework" targeting seven frontier industries (advanced computing, quantum technology, biotechnology, new energy systems, advanced materials, aerospace, and deep-sea exploration). This framework represents a significant shift in how China measures economic productivity, moving beyond traditional GDP metrics to emphasize innovation intensity, resource efficiency, and sustainability indicators. With projected value addition of ¥10 trillion by 2028, this policy signals China's determination to transform its economic growth model toward higher-value, technology-driven development.
-2. The establishment of the Global Innovation Alliance (GIA) with 18 participating countries marks a major expansion of China's international science and technology cooperation. Supported by a $5 billion joint research fund, the alliance creates five international innovation hubs across China with special visa programs and intellectual property protections. This initiative positions China as a central node in global innovation networks while addressing concerns about IP protection that have previously limited some international collaborations.
-3. The Chinese Academy of Sciences has completed the first phase of China's national quantum communication backbone, spanning 35,000 kilometers across 25 provinces. The achievement of quantum repeater technology extending quantum key distribution to 500km without trusted nodes represents a significant technological breakthrough with implications for information security. The establishment of international connection points with five partner countries under the Digital Silk Road initiative extends China's quantum communication leadership globally.
-4. The passage of the comprehensive Technology Security Law creates new frameworks for critical technology protection, cybersecurity requirements, and export controls. The establishment of a "national technology security review system" for foreign investments and mandatory security assessments for international scientific cooperation projects indicates China's increasingly security-oriented approach to technology development and international collaboration, which may have significant implications for global research partnerships.
-5. The Ministry of Science and Technology has unveiled an enhanced innovation policy framework that increases R&amp;D investment to 3.5% of GDP (up from 2.6% in 2023). This substantial increase in research funding, combined with new innovation zones in western regions and the "fast-track approval system" for breakthrough technologies with national security implications, demonstrates China's accelerated push for technological self-reliance in strategic sectors.</t>
+1. China has launched a major "New Quality Productivity" initiative with ¥50 billion investment over 5 years, focusing on AI integration across manufacturing sectors. The State Council's plan explicitly aims to counter international "suppression and containment" through self-reliance in core technologies, establishing five national innovation centers and offering tax incentives for advanced manufacturing investments.
+2. China achieved a significant quantum communication breakthrough with the demonstration of a secure 1,200km quantum network between Beijing and Guangzhou. Using a new entanglement-based protocol, the network achieves practical speeds for commercial applications while remaining resistant to common attacks. Officials announced plans to expand this network nationwide by 2027 for government and financial communications.
+3. The Chinese government enacted comprehensive new scientific data security regulations establishing a three-tier classification system with strict controls on international sharing. The most sensitive "Level 1" data cannot leave China under any circumstances, while "Level 2" requires ministerial approval - raising significant concerns among international research organizations about impacts on global scientific collaboration.
+4. China's National Development and Reform Commission unveiled an updated R&amp;D investment strategy targeting 3.5% of GDP by 2030 (up from current 2.6%), with establishment of a new "Technological Sovereignty Fund" capitalized at ¥100 billion. The strategy prioritizes "primary innovation" in computing, new materials, and biotechnology with new tax incentives for private sector R&amp;D.
+5. The Chinese Academy of Sciences unveiled a fundamentally new AI architecture called "Cognitive Intelligence 2.0" that demonstrates human-like reasoning capabilities. The system outperforms current large language models by 40% on complex reasoning tasks while using 75% less computational resources, incorporating novel approaches to knowledge representation with multimodal capabilities for industrial applications.</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,15 +1669,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Artificial intelligence</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>New quality productivity</t>
+          <t>Quantum computing cloud platform</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Artificial intelligence</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>International innovation platform</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Artificial intelligence</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Technology transfer</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>International innovation platform</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Technology transfer</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1522,7 +1737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,7 +1760,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Quantum communication</t>
+          <t>New quality productivity</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1555,7 +1770,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>New quality productivity</t>
+          <t>Quantum communication</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1565,27 +1780,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Intellectual property protection</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Quantum computing cloud platform</t>
+          <t>Artificial intelligence</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Science and technology development plan</t>
+          <t>Quantum computing cloud platform</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1595,17 +1810,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hydrogen energy storage</t>
+          <t>Technology transfer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brain-computer interface</t>
+          <t>International innovation platform</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1615,7 +1830,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Semiconductor packaging</t>
+          <t>R&amp;D investment strategy</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1625,10 +1840,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>National innovation system</t>
+          <t>Semiconductor packaging</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Innovation-driven development</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>1</v>
       </c>
     </row>
